--- a/Testcase/Sample_Automation_Testcase.xlsx
+++ b/Testcase/Sample_Automation_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db211ccea624a480/Documents/GitHub/Evn-Automation-tool/Testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{041359F6-5613-46A6-A6D4-115A2ABAF22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0191151E-68FC-4735-96C5-013A0F30FC52}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{041359F6-5613-46A6-A6D4-115A2ABAF22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B93898B4-A832-4359-BC15-1EEBA252E7B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5295" yWindow="1365" windowWidth="21600" windowHeight="6315" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="44" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="41">
   <si>
     <t>StringID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Test case name</t>
   </si>
   <si>
-    <t>Companion Gacha</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Companion</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>//list function will be provided later</t>
   </si>
   <si>
-    <t>ListTest</t>
-  </si>
-  <si>
     <t>Send_Enter_Key</t>
   </si>
   <si>
@@ -195,6 +186,21 @@
   </si>
   <si>
     <t>/Item.DeleteAll</t>
+  </si>
+  <si>
+    <t>ListAutoTest</t>
+  </si>
+  <si>
+    <t>Send_Tab_Key</t>
+  </si>
+  <si>
+    <t>Monster Drop Test</t>
+  </si>
+  <si>
+    <t>/summon.npc 124 100</t>
+  </si>
+  <si>
+    <t>/summon.npc 125 100</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,67 @@
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -904,41 +970,161 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1532,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D73BA-C301-47A9-B5A2-51E4ECFCF070}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1546,90 +1732,88 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
@@ -1637,234 +1821,228 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>34</v>
@@ -1872,13 +2050,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1">
         <v>1000</v>
@@ -1886,218 +2064,384 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10000</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B11 B36:B1048576">
-    <cfRule type="containsText" dxfId="80" priority="211" operator="containsText" text="Loop">
+  <conditionalFormatting sqref="B1:B11 B42:B1048576">
+    <cfRule type="containsText" dxfId="98" priority="235" operator="containsText" text="Loop">
       <formula>NOT(ISERROR(SEARCH("Loop",B1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="236" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="239" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="77" priority="118" operator="containsText" text="Loop">
+    <cfRule type="containsText" dxfId="95" priority="142" operator="containsText" text="Loop">
       <formula>NOT(ISERROR(SEARCH("Loop",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="143" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="120" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="74" priority="91" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="144" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="92" priority="115" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="116" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B15)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="containsText" dxfId="89" priority="112" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B17)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="113" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="114" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="86" priority="109" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="110" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="111" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="83" priority="106" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B21)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="107" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="containsText" dxfId="80" priority="145" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="146" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="147" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="Loop">
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Loop">
       <formula>NOT(ISERROR(SEARCH("Loop",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="83" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="65" priority="82" operator="containsText" text="Loop">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Loop">
       <formula>NOT(ISERROR(SEARCH("Loop",B19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="123" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B16)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B17)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="56" priority="70" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B22)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="72" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B28)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B29)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"Result"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
     <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B33)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>"Result"</formula>
@@ -2106,9 +2450,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B36">
     <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B36)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"Result"</formula>
@@ -2117,9 +2461,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B37">
     <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B37)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>"Result"</formula>
@@ -2128,9 +2472,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="B40">
     <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B40)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"Result"</formula>
@@ -2139,9 +2483,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B41">
     <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B41)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"Result"</formula>
@@ -2150,9 +2494,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B32">
     <cfRule type="containsText" dxfId="32" priority="46" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B32)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
       <formula>"Result"</formula>
@@ -2161,9 +2505,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B38">
     <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B38)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Result"</formula>
@@ -2172,9 +2516,9 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B39">
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B39)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Result"</formula>
@@ -2183,20 +2527,20 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B29)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
     <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B15)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Result"</formula>
@@ -2205,20 +2549,20 @@
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B31)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
     <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loop",B24)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Result"</formula>
@@ -2228,46 +2572,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Loop">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Loop">
       <formula>NOT(ISERROR(SEARCH("Loop",B35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B28)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Step"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Loop">
+      <formula>NOT(ISERROR(SEARCH("Loop",B34)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Result"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Step"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Loop">
-      <formula>NOT(ISERROR(SEARCH("Loop",B33)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Result"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2293,21 +2615,21 @@
   <sheetData>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2315,7 +2637,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2323,7 +2645,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2331,7 +2653,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2339,7 +2661,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2347,7 +2669,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2355,7 +2677,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2363,7 +2685,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2371,7 +2693,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2379,7 +2701,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2387,7 +2709,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2395,7 +2717,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2403,7 +2725,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2411,7 +2733,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2419,7 +2741,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2427,7 +2749,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2435,7 +2757,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2443,7 +2765,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2451,7 +2773,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2459,7 +2781,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2467,7 +2789,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2475,7 +2797,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2483,7 +2805,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2491,7 +2813,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2499,7 +2821,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2507,7 +2829,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2515,7 +2837,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2523,7 +2845,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2531,7 +2853,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2539,7 +2861,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2547,7 +2869,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2555,7 +2877,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2563,7 +2885,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2571,7 +2893,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2579,7 +2901,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2587,7 +2909,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2595,7 +2917,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2603,7 +2925,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2611,7 +2933,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2619,7 +2941,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2627,26 +2949,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Loop"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Loop"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Loop"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Step"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2659,7 +2981,7 @@
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2674,68 +2996,48 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A5" s="9"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="9"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="9"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="9"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
